--- a/contratos_controle/modelos_excel/bms_vendas_periodo_anterior.xlsx
+++ b/contratos_controle/modelos_excel/bms_vendas_periodo_anterior.xlsx
@@ -67,7 +67,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -119,7 +119,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -136,8 +136,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -174,7 +174,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -212,7 +212,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -284,7 +284,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
